--- a/test/Compatibility.xlsx
+++ b/test/Compatibility.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="WinMM" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Platform</t>
   </si>
@@ -56,13 +56,16 @@
     <t xml:space="preserve">Deadly Premonition</t>
   </si>
   <si>
+    <t>0.4.0dev</t>
+  </si>
+  <si>
+    <t>GAMEPAD_API_WINMM_LAYOUT=XBOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alone In The Dark: The New Nightmare</t>
+  </si>
+  <si>
     <t>0.3.0dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game assume xbox controller and reads it wrongly: Z (triggers) reverse, R/U swap (rjoy) | Our implementation for WinMM does not match modern controller layout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alone In The Dark: The New Nightmare</t>
   </si>
   <si>
     <t xml:space="preserve">By default, all buttons are unbound. Need to bind them in game's options screen</t>
@@ -419,7 +422,7 @@
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="3" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -440,11 +443,13 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="3" fillId="4" borderId="1" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="4" borderId="1" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,7 +457,6 @@
     <xf fontId="0" fillId="5" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1029,11 +1033,11 @@
         <v>13</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="9" t="s">
-        <v>11</v>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1044,14 +1048,14 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1062,11 +1066,11 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
+      <c r="E7" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1119,14 +1123,14 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1137,14 +1141,14 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1155,14 +1159,14 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
+      <c r="E5" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -1173,11 +1177,11 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
+      <c r="E6" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1188,11 +1192,11 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
+      <c r="E7" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1245,14 +1249,14 @@
         <v>12160</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1305,14 +1309,14 @@
         <v>304240</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
+      <c r="E3" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1323,14 +1327,14 @@
         <v>339340</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1341,14 +1345,14 @@
         <v>1449690</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="9" t="s">
-        <v>29</v>
+      <c r="E5" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1359,11 +1363,11 @@
         <v>2679460</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
+      <c r="E6" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1374,14 +1378,14 @@
         <v>731490</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="9" t="s">
-        <v>29</v>
+      <c r="E7" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -1392,11 +1396,11 @@
         <v>753640</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="9" t="s">
-        <v>29</v>
+      <c r="E8" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1407,11 +1411,11 @@
         <v>1623730</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="9" t="s">
-        <v>29</v>
+      <c r="E9" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1422,11 +1426,11 @@
         <v>1150440</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="9" t="s">
-        <v>29</v>
+      <c r="E10" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -1437,14 +1441,14 @@
         <v>3081320</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="9" t="s">
-        <v>29</v>
+      <c r="E11" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -1455,11 +1459,11 @@
         <v>1911940</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="9" t="s">
-        <v>29</v>
+      <c r="E12" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1470,13 +1474,13 @@
         <v>219990</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1487,13 +1491,13 @@
         <v>1245620</v>
       </c>
       <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>29</v>
+      <c r="E14" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1504,13 +1508,13 @@
         <v>1144200</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -1521,23 +1525,23 @@
         <v>1874000</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="9" t="s">
-        <v>29</v>
+      <c r="E16" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="15">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="9" t="s">
-        <v>29</v>
+      <c r="E17" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1592,14 +1596,14 @@
         <v>3447040</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
+      <c r="E3" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -1610,14 +1614,14 @@
         <v>740130</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
+      <c r="E4" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -1628,14 +1632,14 @@
         <v>275850</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>55</v>
+      <c r="E5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" ht="14.25">
@@ -1646,14 +1650,14 @@
         <v>2523720</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
+      <c r="E6" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1701,10 +1705,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
